--- a/Einführung_ins_wissenschaftliche_Arbeiten/simulation_box.xlsx
+++ b/Einführung_ins_wissenschaftliche_Arbeiten/simulation_box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justusmulthaup/BA/Einführung_ins_wissenschaftliche_Arbeiten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34147E05-FAB4-9C4F-94AF-944D5E098F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B7BC77-CA07-A24A-945A-C899E5713043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{705C9235-7EA7-1748-8E50-E2729F019261}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="37260" windowHeight="21100" xr2:uid="{705C9235-7EA7-1748-8E50-E2729F019261}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,348 +316,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Curved Connector 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D775C08-75B9-5D43-A159-8EC2820A00D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4216400" y="2959100"/>
-          <a:ext cx="1409700" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Curved Connector 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19BF172-FD80-3141-8E65-D7D519333FCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4203700" y="3302000"/>
-          <a:ext cx="1409700" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Curved Connector 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29E1873-2199-334B-BB2F-425B45B6CCC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4216400" y="2603500"/>
-          <a:ext cx="1409700" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Curved Connector 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C48BE1-17D2-8B42-9BA9-772AAB8B26BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7061200" y="3352800"/>
-          <a:ext cx="1612900" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Curved Connector 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B432749-6EA7-6249-BB6C-BE876E5D947C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7023100" y="2997200"/>
-          <a:ext cx="1587500" cy="431800"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Curved Connector 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B16F92-3D58-464A-811E-CDF202D13833}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6845300" y="2628900"/>
-          <a:ext cx="1943100" cy="520700"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>233680</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -734,6 +392,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="82" idx="3"/>
           <a:endCxn id="13" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -838,7 +497,99 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="86" name="Ink 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B115EBA3-C162-E119-C0C2-4CCDDD1139AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11643120" y="3624840"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="86" name="Ink 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B115EBA3-C162-E119-C0C2-4CCDDD1139AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11634120" y="3615840"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-03-27T16:38:17.746"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'0'0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,7 +892,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Einführung_ins_wissenschaftliche_Arbeiten/simulation_box.xlsx
+++ b/Einführung_ins_wissenschaftliche_Arbeiten/simulation_box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justusmulthaup/BA/Einführung_ins_wissenschaftliche_Arbeiten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B7BC77-CA07-A24A-945A-C899E5713043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379904D-9BF3-134D-8DE8-F08B97A83F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="37260" windowHeight="21100" xr2:uid="{705C9235-7EA7-1748-8E50-E2729F019261}"/>
+    <workbookView minimized="1" xWindow="1140" yWindow="500" windowWidth="37260" windowHeight="21100" xr2:uid="{705C9235-7EA7-1748-8E50-E2729F019261}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -72,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,13 +131,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178300" y="2133600"/>
-          <a:ext cx="4660900" cy="1816100"/>
+          <a:off x="4165884" y="2159142"/>
+          <a:ext cx="4648484" cy="1839088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill>
+        <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="accent1">
@@ -153,7 +164,8 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
+          <a:lin ang="0" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </xdr:spPr>
       <xdr:style>
@@ -185,8 +197,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>773352</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
@@ -209,8 +221,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8470900" y="2133600"/>
-          <a:ext cx="368300" cy="1816100"/>
+          <a:off x="8180503" y="2159142"/>
+          <a:ext cx="633865" cy="1839088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -251,78 +263,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>416560</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97577C3-4688-9CE5-77B9-7CC918335111}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4178300" y="2133600"/>
-          <a:ext cx="365760" cy="1816100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000">
-            <a:alpha val="62000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>233680</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>367733</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>181915</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -336,14 +283,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="82" idx="1"/>
-          <a:endCxn id="14" idx="0"/>
+          <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4361180" y="1574800"/>
-          <a:ext cx="1620520" cy="558800"/>
+          <a:off x="4482817" y="1862289"/>
+          <a:ext cx="1460215" cy="296853"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -372,13 +320,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>677215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>267268</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -399,8 +347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7302500" y="1574800"/>
-          <a:ext cx="1352550" cy="558800"/>
+          <a:off x="7261349" y="1862289"/>
+          <a:ext cx="1236087" cy="296853"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -429,15 +377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>181915</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>677215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -452,8 +400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5981700" y="1397000"/>
-          <a:ext cx="1320800" cy="355600"/>
+          <a:off x="5943032" y="1681934"/>
+          <a:ext cx="1318317" cy="360709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,99 +445,1856 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>86120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>170440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255419</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>86480</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517934</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>170800</xdr:rowOff>
+      <xdr:rowOff>21286</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="86" name="Ink 85">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Group 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AA123B-0E1C-A1BD-BF1A-31309619F3B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6016536" y="2589667"/>
+          <a:ext cx="1085532" cy="929440"/>
+          <a:chOff x="9457598" y="567598"/>
+          <a:chExt cx="1262905" cy="1051560"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Freeform 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FC03EB-3F6C-9DEC-1100-45740F506F3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9471788" y="567598"/>
+            <a:ext cx="1248715" cy="1051560"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1248715"/>
+              <a:gd name="connsiteY0" fmla="*/ 858491 h 1050056"/>
+              <a:gd name="connsiteX1" fmla="*/ 134804 w 1248715"/>
+              <a:gd name="connsiteY1" fmla="*/ 652737 h 1050056"/>
+              <a:gd name="connsiteX2" fmla="*/ 411508 w 1248715"/>
+              <a:gd name="connsiteY2" fmla="*/ 709497 h 1050056"/>
+              <a:gd name="connsiteX3" fmla="*/ 454078 w 1248715"/>
+              <a:gd name="connsiteY3" fmla="*/ 922346 h 1050056"/>
+              <a:gd name="connsiteX4" fmla="*/ 759162 w 1248715"/>
+              <a:gd name="connsiteY4" fmla="*/ 901061 h 1050056"/>
+              <a:gd name="connsiteX5" fmla="*/ 744972 w 1248715"/>
+              <a:gd name="connsiteY5" fmla="*/ 674022 h 1050056"/>
+              <a:gd name="connsiteX6" fmla="*/ 950726 w 1248715"/>
+              <a:gd name="connsiteY6" fmla="*/ 631452 h 1050056"/>
+              <a:gd name="connsiteX7" fmla="*/ 1050056 w 1248715"/>
+              <a:gd name="connsiteY7" fmla="*/ 879776 h 1050056"/>
+              <a:gd name="connsiteX8" fmla="*/ 922346 w 1248715"/>
+              <a:gd name="connsiteY8" fmla="*/ 1050056 h 1050056"/>
+              <a:gd name="connsiteX9" fmla="*/ 681117 w 1248715"/>
+              <a:gd name="connsiteY9" fmla="*/ 979106 h 1050056"/>
+              <a:gd name="connsiteX10" fmla="*/ 652737 w 1248715"/>
+              <a:gd name="connsiteY10" fmla="*/ 716592 h 1050056"/>
+              <a:gd name="connsiteX11" fmla="*/ 411508 w 1248715"/>
+              <a:gd name="connsiteY11" fmla="*/ 560503 h 1050056"/>
+              <a:gd name="connsiteX12" fmla="*/ 496648 w 1248715"/>
+              <a:gd name="connsiteY12" fmla="*/ 368938 h 1050056"/>
+              <a:gd name="connsiteX13" fmla="*/ 780447 w 1248715"/>
+              <a:gd name="connsiteY13" fmla="*/ 418603 h 1050056"/>
+              <a:gd name="connsiteX14" fmla="*/ 581787 w 1248715"/>
+              <a:gd name="connsiteY14" fmla="*/ 170279 h 1050056"/>
+              <a:gd name="connsiteX15" fmla="*/ 893966 w 1248715"/>
+              <a:gd name="connsiteY15" fmla="*/ 113519 h 1050056"/>
+              <a:gd name="connsiteX16" fmla="*/ 943631 w 1248715"/>
+              <a:gd name="connsiteY16" fmla="*/ 333463 h 1050056"/>
+              <a:gd name="connsiteX17" fmla="*/ 1248715 w 1248715"/>
+              <a:gd name="connsiteY17" fmla="*/ 262514 h 1050056"/>
+              <a:gd name="connsiteX18" fmla="*/ 1106815 w 1248715"/>
+              <a:gd name="connsiteY18" fmla="*/ 532123 h 1050056"/>
+              <a:gd name="connsiteX19" fmla="*/ 893966 w 1248715"/>
+              <a:gd name="connsiteY19" fmla="*/ 368938 h 1050056"/>
+              <a:gd name="connsiteX20" fmla="*/ 730782 w 1248715"/>
+              <a:gd name="connsiteY20" fmla="*/ 510838 h 1050056"/>
+              <a:gd name="connsiteX21" fmla="*/ 560503 w 1248715"/>
+              <a:gd name="connsiteY21" fmla="*/ 219944 h 1050056"/>
+              <a:gd name="connsiteX22" fmla="*/ 326368 w 1248715"/>
+              <a:gd name="connsiteY22" fmla="*/ 234134 h 1050056"/>
+              <a:gd name="connsiteX23" fmla="*/ 205754 w 1248715"/>
+              <a:gd name="connsiteY23" fmla="*/ 42570 h 1050056"/>
+              <a:gd name="connsiteX24" fmla="*/ 539218 w 1248715"/>
+              <a:gd name="connsiteY24" fmla="*/ 0 h 1050056"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX9" y="connsiteY9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX10" y="connsiteY10"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX11" y="connsiteY11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX12" y="connsiteY12"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX13" y="connsiteY13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX14" y="connsiteY14"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX15" y="connsiteY15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX16" y="connsiteY16"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX17" y="connsiteY17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX18" y="connsiteY18"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX19" y="connsiteY19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX20" y="connsiteY20"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX21" y="connsiteY21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX22" y="connsiteY22"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX23" y="connsiteY23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX24" y="connsiteY24"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1248715" h="1050056">
+                <a:moveTo>
+                  <a:pt x="0" y="858491"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="134804" y="652737"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="411508" y="709497"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="454078" y="922346"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="759162" y="901061"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="744972" y="674022"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="950726" y="631452"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1050056" y="879776"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="922346" y="1050056"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="681117" y="979106"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="652737" y="716592"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="411508" y="560503"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="496648" y="368938"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="780447" y="418603"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="581787" y="170279"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="893966" y="113519"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="943631" y="333463"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1248715" y="262514"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1106815" y="532123"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="893966" y="368938"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="730782" y="510838"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="560503" y="219944"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="326368" y="234134"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="205754" y="42570"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="539218" y="0"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E03710-7A1B-F310-5E70-39B82F97E395}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="5" idx="24"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9457598" y="567598"/>
+            <a:ext cx="553408" cy="858491"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="TextBox 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E566085-D9C3-E9D1-92A6-B749BD7B7899}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9465119" y="894392"/>
+                <a:ext cx="228990" cy="349672"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a14:m>
+                  <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:oMathParaPr>
+                      <m:jc m:val="centerGroup"/>
+                    </m:oMathParaPr>
+                    <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑅</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:oMath>
+                  </m:oMathPara>
+                </a14:m>
+                <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+              </a:p>
+              <a:p>
+                <a:endParaRPr lang="en-GB" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="TextBox 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E566085-D9C3-E9D1-92A6-B749BD7B7899}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9465119" y="894392"/>
+                <a:ext cx="228990" cy="349672"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>𝑅_𝑒</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+              </a:p>
+              <a:p>
+                <a:endParaRPr lang="en-GB" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Oval 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F5AF80-B110-C84D-428E-8A26A1FAB4AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10046480" y="1071341"/>
+            <a:ext cx="49665" cy="49665"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="TextBox 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F07E92-A1B9-1EEC-156F-3CA35594A051}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10117855" y="1029196"/>
+                <a:ext cx="240803" cy="344453"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a14:m>
+                  <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:oMathParaPr>
+                      <m:jc m:val="centerGroup"/>
+                    </m:oMathParaPr>
+                    <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑟</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑐𝑚</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:oMath>
+                  </m:oMathPara>
+                </a14:m>
+                <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+              </a:p>
+              <a:p>
+                <a:endParaRPr lang="en-GB" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="TextBox 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F07E92-A1B9-1EEC-156F-3CA35594A051}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10117855" y="1029196"/>
+                <a:ext cx="240803" cy="344453"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>𝑟_𝑐𝑚</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+              </a:p>
+              <a:p>
+                <a:endParaRPr lang="en-GB" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>684665</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EB4791-35E2-5A41-8F8C-C1038BE98D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165884" y="2159142"/>
+          <a:ext cx="633865" cy="1839088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000">
+            <a:alpha val="62000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9503058-0F3A-575B-876B-9630152E237C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165884" y="4299022"/>
+          <a:ext cx="4648484" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607047</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>426</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="225959" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B115EBA3-C162-E119-C0C2-4CCDDD1139AB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="11643120" y="3624840"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="86" name="Ink 85">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B115EBA3-C162-E119-C0C2-4CCDDD1139AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6161564-4B0E-6FB5-D377-8559950F5F21}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11634120" y="3615840"/>
-              <a:ext cx="18000" cy="18000"/>
+              <a:off x="6368164" y="4321264"/>
+              <a:ext cx="225959" cy="344453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
           </xdr:spPr>
-        </xdr:pic>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6161564-4B0E-6FB5-D377-8559950F5F21}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6368164" y="4321264"/>
+              <a:ext cx="225959" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿_𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>773352</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169747</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4370BF89-F464-6F6D-D452-63F58BA4FC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8180503" y="4079077"/>
+          <a:ext cx="633865" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>202632</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184894</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="134589" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71302981-735F-B51E-D6D3-4566B9ACFF64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8432800" y="4094224"/>
+              <a:ext cx="134589" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71302981-735F-B51E-D6D3-4566B9ACFF64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8432800" y="4094224"/>
+              <a:ext cx="134589" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49665</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683530</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F06E52-1965-8D4E-BCD0-C16BEDDB84B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4164749" y="4065419"/>
+          <a:ext cx="633865" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294866</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170705</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="118109" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FD7D10-8196-7378-D6A0-755AFB522AFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4409950" y="4080035"/>
+              <a:ext cx="118109" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FD7D10-8196-7378-D6A0-755AFB522AFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4409950" y="4080035"/>
+              <a:ext cx="118109" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276704</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553408</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Freeform 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31017D73-AC50-EAA1-C542-D2F4C4146E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20909375">
+          <a:off x="7683855" y="2653520"/>
+          <a:ext cx="1099721" cy="901062"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1468660"/>
+            <a:gd name="connsiteY0" fmla="*/ 787542 h 1078436"/>
+            <a:gd name="connsiteX1" fmla="*/ 361844 w 1468660"/>
+            <a:gd name="connsiteY1" fmla="*/ 581788 h 1078436"/>
+            <a:gd name="connsiteX2" fmla="*/ 581788 w 1468660"/>
+            <a:gd name="connsiteY2" fmla="*/ 837207 h 1078436"/>
+            <a:gd name="connsiteX3" fmla="*/ 773352 w 1468660"/>
+            <a:gd name="connsiteY3" fmla="*/ 652738 h 1078436"/>
+            <a:gd name="connsiteX4" fmla="*/ 1121006 w 1468660"/>
+            <a:gd name="connsiteY4" fmla="*/ 645643 h 1078436"/>
+            <a:gd name="connsiteX5" fmla="*/ 1085531 w 1468660"/>
+            <a:gd name="connsiteY5" fmla="*/ 943631 h 1078436"/>
+            <a:gd name="connsiteX6" fmla="*/ 1319665 w 1468660"/>
+            <a:gd name="connsiteY6" fmla="*/ 851397 h 1078436"/>
+            <a:gd name="connsiteX7" fmla="*/ 1163576 w 1468660"/>
+            <a:gd name="connsiteY7" fmla="*/ 1078436 h 1078436"/>
+            <a:gd name="connsiteX8" fmla="*/ 815922 w 1468660"/>
+            <a:gd name="connsiteY8" fmla="*/ 915252 h 1078436"/>
+            <a:gd name="connsiteX9" fmla="*/ 915252 w 1468660"/>
+            <a:gd name="connsiteY9" fmla="*/ 780447 h 1078436"/>
+            <a:gd name="connsiteX10" fmla="*/ 780447 w 1468660"/>
+            <a:gd name="connsiteY10" fmla="*/ 454078 h 1078436"/>
+            <a:gd name="connsiteX11" fmla="*/ 1071341 w 1468660"/>
+            <a:gd name="connsiteY11" fmla="*/ 482458 h 1078436"/>
+            <a:gd name="connsiteX12" fmla="*/ 1468660 w 1468660"/>
+            <a:gd name="connsiteY12" fmla="*/ 432793 h 1078436"/>
+            <a:gd name="connsiteX13" fmla="*/ 1369330 w 1468660"/>
+            <a:gd name="connsiteY13" fmla="*/ 666928 h 1078436"/>
+            <a:gd name="connsiteX14" fmla="*/ 1163576 w 1468660"/>
+            <a:gd name="connsiteY14" fmla="*/ 368939 h 1078436"/>
+            <a:gd name="connsiteX15" fmla="*/ 964917 w 1468660"/>
+            <a:gd name="connsiteY15" fmla="*/ 227039 h 1078436"/>
+            <a:gd name="connsiteX16" fmla="*/ 631453 w 1468660"/>
+            <a:gd name="connsiteY16" fmla="*/ 418603 h 1078436"/>
+            <a:gd name="connsiteX17" fmla="*/ 652738 w 1468660"/>
+            <a:gd name="connsiteY17" fmla="*/ 255419 h 1078436"/>
+            <a:gd name="connsiteX18" fmla="*/ 979107 w 1468660"/>
+            <a:gd name="connsiteY18" fmla="*/ 134805 h 1078436"/>
+            <a:gd name="connsiteX19" fmla="*/ 787542 w 1468660"/>
+            <a:gd name="connsiteY19" fmla="*/ 0 h 1078436"/>
+            <a:gd name="connsiteX20" fmla="*/ 468269 w 1468660"/>
+            <a:gd name="connsiteY20" fmla="*/ 276704 h 1078436"/>
+            <a:gd name="connsiteX21" fmla="*/ 695308 w 1468660"/>
+            <a:gd name="connsiteY21" fmla="*/ 482458 h 1078436"/>
+            <a:gd name="connsiteX22" fmla="*/ 986202 w 1468660"/>
+            <a:gd name="connsiteY22" fmla="*/ 340559 h 1078436"/>
+            <a:gd name="connsiteX23" fmla="*/ 1163576 w 1468660"/>
+            <a:gd name="connsiteY23" fmla="*/ 610168 h 1078436"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1468660" h="1078436">
+              <a:moveTo>
+                <a:pt x="0" y="787542"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="361844" y="581788"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="581788" y="837207"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="773352" y="652738"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1121006" y="645643"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1085531" y="943631"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1319665" y="851397"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1163576" y="1078436"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="815922" y="915252"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="915252" y="780447"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="780447" y="454078"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1071341" y="482458"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1468660" y="432793"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1369330" y="666928"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1163576" y="368939"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="964917" y="227039"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="631453" y="418603"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="652738" y="255419"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="979107" y="134805"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="787542" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="468269" y="276704"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="695308" y="482458"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="986202" y="340559"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1163576" y="610168"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230188</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275907</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756EF6C3-DA5D-644B-BF05-A06AE55CB499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8460356" y="3060205"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284226</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149420</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="290467" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DD5C4D-7A92-3F65-5752-C37440900E8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8514394" y="3029979"/>
+              <a:ext cx="290467" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑐𝑚</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DD5C4D-7A92-3F65-5752-C37440900E8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8514394" y="3029979"/>
+              <a:ext cx="290467" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑟_𝑐𝑚</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-27T16:38:17.746"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'0'0</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5202D02F-37C8-0E4A-88E6-CFE44FCC6396}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="179" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,7 +2847,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
